--- a/DesignDocument/OBC软硬件接口(HSI)设计文档.xlsx
+++ b/DesignDocument/OBC软硬件接口(HSI)设计文档.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A3373-5AD2-441B-A908-E95ACB9D8488}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E552D68-4EDE-401D-901B-870BC89EFD04}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="SD Card" sheetId="2" r:id="rId2"/>
-    <sheet name="Clock" sheetId="3" r:id="rId3"/>
+    <sheet name="ADC" sheetId="4" r:id="rId2"/>
+    <sheet name="SD Card" sheetId="2" r:id="rId3"/>
+    <sheet name="Clock" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$D$1:$D$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$F$65</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="274">
   <si>
     <t>Pin Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADC12_IN8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Red LED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -931,6 +928,153 @@
   <si>
     <t>PPRE1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA Buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_I_SET</t>
+  </si>
+  <si>
+    <t>ADC_C_SET</t>
+  </si>
+  <si>
+    <t>ADC_I_CHG</t>
+  </si>
+  <si>
+    <t>ADC_TEMP1</t>
+  </si>
+  <si>
+    <t>ADC_TEMP2</t>
+  </si>
+  <si>
+    <t>ADC_U_BAT</t>
+  </si>
+  <si>
+    <t>ADC_U_OUT</t>
+  </si>
+  <si>
+    <t>ADC_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_Channel_10</t>
+  </si>
+  <si>
+    <t>ADC_Channel_11</t>
+  </si>
+  <si>
+    <t>ADC_Channel_12</t>
+  </si>
+  <si>
+    <t>ADC_Channel_13</t>
+  </si>
+  <si>
+    <t>ADC_Channel_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_Channel_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_Channel_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_Channel_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_SampleTime_55Cycles5</t>
+  </si>
+  <si>
+    <t>ADC_SampleTime_55Cycles5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test method： directly connect pin to GND，counter is nealy 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12-Channel 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12-Channel 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12-Channel 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12-Channel 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_U_BAT_POS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_U_BAT_NEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_Channel_14</t>
+  </si>
+  <si>
+    <t>ADC_Channel_15</t>
+  </si>
+  <si>
+    <t>ADC_Channel_9</t>
+  </si>
+  <si>
+    <t>ADC_V_CHG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>PC5</t>
   </si>
 </sst>
 </file>
@@ -982,7 +1126,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,8 +1145,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1025,11 +1175,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1044,6 +1205,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1637,7 +1802,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1953,8 +2118,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2107,7 +2272,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -2115,6 +2280,7 @@
       <c r="F9" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -2127,7 +2293,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
@@ -2135,6 +2301,7 @@
       <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2147,7 +2314,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -2155,6 +2322,7 @@
       <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -2167,7 +2335,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
@@ -2175,6 +2343,7 @@
       <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -2216,7 +2385,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>35</v>
@@ -2224,6 +2393,7 @@
       <c r="F15" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="G15" s="11"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2237,7 +2407,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>39</v>
@@ -2245,6 +2415,7 @@
       <c r="F16" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="G16" s="11"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2258,7 +2429,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>47</v>
@@ -2266,6 +2437,7 @@
       <c r="F17" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="G17" s="11"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2322,16 +2494,16 @@
         <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2342,16 +2514,16 @@
         <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>56</v>
@@ -2368,16 +2540,16 @@
         <v>60</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>57</v>
@@ -2394,19 +2566,19 @@
         <v>61</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2419,8 +2591,11 @@
       <c r="E25" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2432,6 +2607,9 @@
       </c>
       <c r="E26" s="5" t="s">
         <v>105</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2445,16 +2623,17 @@
         <v>103</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2462,10 +2641,13 @@
         <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2479,10 +2661,10 @@
         <v>48</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2496,10 +2678,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2513,10 +2695,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2549,13 +2731,13 @@
         <v>71</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2566,13 +2748,13 @@
         <v>72</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2583,13 +2765,13 @@
         <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2603,13 +2785,13 @@
         <v>48</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2623,13 +2805,13 @@
         <v>48</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2640,10 +2822,10 @@
         <v>76</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E39" s="6"/>
     </row>
@@ -2655,10 +2837,10 @@
         <v>77</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="E40" s="6"/>
     </row>
@@ -2670,10 +2852,10 @@
         <v>78</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E41" s="6"/>
     </row>
@@ -2685,10 +2867,10 @@
         <v>79</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2699,16 +2881,16 @@
         <v>80</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2719,16 +2901,16 @@
         <v>81</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2739,10 +2921,10 @@
         <v>82</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2753,10 +2935,10 @@
         <v>83</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2767,10 +2949,10 @@
         <v>84</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -2781,10 +2963,10 @@
         <v>85</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2795,10 +2977,10 @@
         <v>86</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2809,7 +2991,7 @@
         <v>87</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2820,7 +3002,7 @@
         <v>88</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2831,10 +3013,10 @@
         <v>89</v>
       </c>
       <c r="C52" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2845,10 +3027,10 @@
         <v>90</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2859,10 +3041,10 @@
         <v>91</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2873,10 +3055,10 @@
         <v>92</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2887,7 +3069,7 @@
         <v>93</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2898,7 +3080,7 @@
         <v>94</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2909,7 +3091,7 @@
         <v>95</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2920,10 +3102,10 @@
         <v>96</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2934,10 +3116,10 @@
         <v>97</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2948,7 +3130,7 @@
         <v>98</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2959,7 +3141,7 @@
         <v>99</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2970,7 +3152,7 @@
         <v>100</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2981,10 +3163,10 @@
         <v>101</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2995,24 +3177,17 @@
         <v>102</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D65" xr:uid="{53DCED9C-1A61-4293-8B6C-5903FB453BD4}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:F65" xr:uid="{CF47E148-4D5C-4502-92EF-4AD199AF5190}">
+    <filterColumn colId="2">
       <filters>
-        <filter val="ADC_CSet_mV"/>
-        <filter val="ADC_ICharge_mA"/>
-        <filter val="ADC_ISet_mV"/>
-        <filter val="ADC_Temp1_mC"/>
-        <filter val="ADC_Temp2_mC"/>
-        <filter val="ADC_VBat_mV"/>
-        <filter val="ADC_Vkey_mV"/>
-        <filter val="ADC_VOut_mV"/>
+        <filter val="ADC"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3023,6 +3198,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DB699-94B0-47D3-A036-E80D7C15C2B3}">
+  <dimension ref="A2:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3038,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:I45"/>
   <sheetViews>
@@ -3054,246 +3513,246 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6">
         <f>B2*(B5+2)</f>
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8">
         <f>B6</f>
         <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10">
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12">
         <f>B10/2</f>
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -3301,7 +3760,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3309,18 +3768,18 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34">
         <f>B35/(B18+1)</f>
@@ -3329,7 +3788,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35">
         <f>B33/(B23+1)*(B24+2)</f>
@@ -3338,7 +3797,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B36">
         <f>B34*(B20+2)</f>
@@ -3347,7 +3806,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B37">
         <f>B36/(B27-2)</f>
@@ -3356,7 +3815,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38">
         <f>B36*(B22+2)</f>
@@ -3365,24 +3824,24 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F43" t="s">
+        <v>199</v>
+      </c>
+      <c r="G43" t="s">
         <v>200</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>201</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>202</v>
-      </c>
-      <c r="I43" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E44">
         <f>B12/(1+F44+1+G44+1)/(H44+1)</f>

--- a/DesignDocument/OBC软硬件接口(HSI)设计文档.xlsx
+++ b/DesignDocument/OBC软硬件接口(HSI)设计文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E552D68-4EDE-401D-901B-870BC89EFD04}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE178B1-9FC7-437D-BB2F-AC8AA3FF0FBA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="285">
   <si>
     <t>Pin Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,18 +132,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>temperature sensor 1 value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>temperature sensor 2 value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Battery module voltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Output voltage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +166,6 @@
     <t>PA3</t>
   </si>
   <si>
-    <t>Current command from HW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADC12-Channel 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,22 +190,10 @@
     <t>ADC12-Channel 2</t>
   </si>
   <si>
-    <t>Charge command from HW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Signal relay control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VSS_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,10 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bOutRelayCmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>control output relay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,97 +423,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bChgPowerOn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>control charge power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADC_Temp1_mC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC_Temp2_mC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC_VBat_mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC_VOut_mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC_Vkey_mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC_ISet_mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC_CSet_mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DAC_URefOut_mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reference voltage output using DAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAC_OUT1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAC_OUT2</t>
-  </si>
-  <si>
-    <t>DAC_IRefOut_mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reference current output using DAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI1_MISO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPI1_MOSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC_ICharge_mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CAN Rx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,22 +463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED_RedState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED_YellowsState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED_GreenState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPI2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,18 +483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bMosOnCmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bBatConnectOk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bBatConnectFail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Battery connect ok signal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,10 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JTMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -999,10 +864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hold Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1026,10 +887,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test method： directly connect pin to GND，counter is nealy 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1075,6 +932,194 @@
   </si>
   <si>
     <t>PC5</t>
+  </si>
+  <si>
+    <t>U_Batt_mV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_Pack_mV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_Charge_mV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_Key_mV - enKeySelected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current command from HW: decide which current should be used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charge command from HW: decide which charge curve should be used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal relay control: 1-close, 0-open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unused pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD:SPI1_MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流环:0-100%占空比对应0-100%负载，至少精度0.1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压环:0-100%占空比对应0-100%电压，至少精度0.1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Fan On   0-Fan Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_Out_mV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTRL_OutRelayCmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTRL_ChgPowerOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTRL_MosOnCmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC_OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT103J3435F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC Low：0-low 1-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature sensor 1 value: BT103J3435F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Temp2_mC - Battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery module voltage:靠近继电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_ISet_mV  I-基于最大电流设定四档充电电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_CSet_mV 设定四种充电曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTRL_RelayCmd-与外部设备配合使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_Charge_mA 1.3V最大电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_YellowsState 待机闪烁1s，充电(除了浮充)常亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_GreenState  拉升和浮充常亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_RedState     电池反接常亮， 电池高低压闪烁(正常范围8V-16V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_Sel: 0下拉表示进入测试模式，其他阻值代表不同型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTMS/AC_OFF  0：正常  1：异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Temp1_mC - charger， 全封闭过温点90，恢复80；其他70过温，60恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTRL_FanOnCmd  低于最大电流的30%就关闭   过温也开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bBatConnectOk 0：ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bBatConnectFail 0：接反</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1126,7 +1171,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1151,8 +1196,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1186,11 +1243,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1209,6 +1292,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1802,7 +1912,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2118,15 +2228,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="19.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="55.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -2175,6 +2285,10 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -2192,6 +2306,7 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -2209,6 +2324,7 @@
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -2226,6 +2342,7 @@
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -2243,6 +2360,7 @@
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -2260,6 +2378,7 @@
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -2272,13 +2391,13 @@
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -2293,13 +2412,13 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -2314,13 +2433,13 @@
         <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -2335,13 +2454,13 @@
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>258</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -2350,7 +2469,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
@@ -2358,13 +2477,14 @@
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -2372,6 +2492,7 @@
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G14" s="11"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2379,19 +2500,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G15" s="11"/>
       <c r="J15" s="1"/>
@@ -2401,19 +2522,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G16" s="11"/>
       <c r="J16" s="1"/>
@@ -2423,19 +2544,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G17" s="11"/>
       <c r="J17" s="1"/>
@@ -2445,17 +2566,18 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="11"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2463,10 +2585,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
@@ -2477,10 +2599,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
@@ -2491,45 +2613,41 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>125</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G22" s="11"/>
       <c r="J22" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2537,25 +2655,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G23" s="11"/>
       <c r="J23" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2563,73 +2679,73 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>262</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -2638,16 +2754,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>150</v>
+        <v>120</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>265</v>
+        <v>229</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2655,518 +2777,565 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>113</v>
+        <v>261</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>152</v>
+        <v>283</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3174,13 +3343,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3199,50 +3368,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DB699-94B0-47D3-A036-E80D7C15C2B3}">
-  <dimension ref="A2:I13"/>
+  <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="17" customWidth="1"/>
     <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>253</v>
+        <v>218</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3250,19 +3420,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="12"/>
       <c r="I3" s="3"/>
     </row>
@@ -3271,19 +3441,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="12"/>
       <c r="I4" s="3"/>
     </row>
@@ -3292,19 +3462,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="12"/>
       <c r="I5" s="3"/>
     </row>
@@ -3313,19 +3483,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="12"/>
       <c r="I6" s="3"/>
     </row>
@@ -3334,19 +3504,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="12"/>
       <c r="I7" s="3"/>
     </row>
@@ -3355,19 +3525,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="12"/>
       <c r="I8" s="3"/>
     </row>
@@ -3376,19 +3546,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="12"/>
       <c r="I9" s="3"/>
     </row>
@@ -3396,20 +3566,22 @@
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>239</v>
+      <c r="B10" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="16" t="s">
+        <v>239</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="3"/>
     </row>
@@ -3417,20 +3589,22 @@
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>240</v>
+      <c r="B11" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="16" t="s">
+        <v>240</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="3"/>
     </row>
@@ -3439,42 +3613,74 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H12" t="s">
-        <v>261</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20">
+        <v>3435</v>
+      </c>
+      <c r="D20" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H13" t="s">
-        <v>260</v>
+      <c r="E20">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G12:G13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3486,7 +3692,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3501,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3513,246 +3719,246 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="B6">
         <f>B2*(B5+2)</f>
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="B8">
         <f>B6</f>
         <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B10">
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="B12">
         <f>B10/2</f>
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -3760,7 +3966,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3768,18 +3974,18 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="B34">
         <f>B35/(B18+1)</f>
@@ -3788,7 +3994,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="B35">
         <f>B33/(B23+1)*(B24+2)</f>
@@ -3797,7 +4003,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="B36">
         <f>B34*(B20+2)</f>
@@ -3806,7 +4012,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="B37">
         <f>B36/(B27-2)</f>
@@ -3815,7 +4021,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="B38">
         <f>B36*(B22+2)</f>
@@ -3824,24 +4030,24 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="F43" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="G43" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="H43" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="I43" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="E44">
         <f>B12/(1+F44+1+G44+1)/(H44+1)</f>

--- a/DesignDocument/OBC软硬件接口(HSI)设计文档.xlsx
+++ b/DesignDocument/OBC软硬件接口(HSI)设计文档.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE178B1-9FC7-437D-BB2F-AC8AA3FF0FBA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F4CE6A-F54B-40C6-B3F7-E1486F2AE7B7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="ADC" sheetId="4" r:id="rId2"/>
-    <sheet name="SD Card" sheetId="2" r:id="rId3"/>
-    <sheet name="Clock" sheetId="3" r:id="rId4"/>
+    <sheet name="USB" sheetId="5" r:id="rId2"/>
+    <sheet name="ADC" sheetId="4" r:id="rId3"/>
+    <sheet name="SD Card" sheetId="2" r:id="rId4"/>
+    <sheet name="Clock" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$F$65</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="320">
   <si>
     <t>Pin Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -887,10 +888,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test method： directly connect pin to GND，counter is nealy 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADC12-Channel 14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -924,10 +921,6 @@
     <t>ADC_Channel_9</t>
   </si>
   <si>
-    <t>ADC_V_CHG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PC4</t>
   </si>
   <si>
@@ -1119,6 +1112,151 @@
   </si>
   <si>
     <t>bBatConnectFail 0：接反</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上拉电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key2</t>
+  </si>
+  <si>
+    <t>Key3</t>
+  </si>
+  <si>
+    <t>Key4</t>
+  </si>
+  <si>
+    <t>无按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限mV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_U_SET_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIN51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO/MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI/MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIN52 SPI3_MISO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIN53 SPI3_MOSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIN54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-BUS,直接上拉至VDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试直接强制作为设备模式，OTG_FS_GUSBCFG的FDMOD置位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,7 +1347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1269,11 +1407,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1304,6 +1642,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1414,6 +1780,143 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>286458</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869927D5-9295-408D-A98C-04E4AE756325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5048958" cy="2827020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>62241</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACEA0AD-AB63-4425-9467-6F73C552EC1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143501" y="60960"/>
+          <a:ext cx="5281940" cy="2699852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254393</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>235203</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEC180D-EFA3-441E-AA79-CE99AB92D3CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6845693" y="2804160"/>
+          <a:ext cx="5467210" cy="3506251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>342514</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -1450,10 +1953,54 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381466</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0851F9-5838-44FA-AC48-AFF6920B7863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="0"/>
+          <a:ext cx="9411166" cy="2444256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2228,8 +2775,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2286,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -2380,7 +2927,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2391,17 +2938,17 @@
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2412,7 +2959,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -2422,7 +2969,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2433,17 +2980,17 @@
         <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2454,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>29</v>
@@ -2495,7 +3042,7 @@
       <c r="G14" s="11"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2506,7 +3053,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>33</v>
@@ -2517,7 +3064,7 @@
       <c r="G15" s="11"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2528,10 +3075,10 @@
         <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>42</v>
@@ -2539,7 +3086,7 @@
       <c r="G16" s="11"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2550,10 +3097,10 @@
         <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>43</v>
@@ -2572,10 +3119,10 @@
         <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G18" s="11"/>
       <c r="J18" s="1"/>
@@ -2619,10 +3166,10 @@
         <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -2637,10 +3184,10 @@
         <v>107</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G22" s="11"/>
       <c r="J22" s="3" t="s">
@@ -2661,10 +3208,10 @@
         <v>115</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G23" s="11"/>
       <c r="J23" s="3" t="s">
@@ -2688,11 +3235,11 @@
         <v>117</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2706,11 +3253,11 @@
         <v>98</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2724,11 +3271,11 @@
         <v>99</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2739,17 +3286,17 @@
         <v>97</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2760,16 +3307,16 @@
         <v>120</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>119</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2783,7 +3330,7 @@
         <v>44</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>101</v>
@@ -2801,7 +3348,7 @@
         <v>44</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>102</v>
@@ -2819,7 +3366,7 @@
         <v>44</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>103</v>
@@ -2913,7 +3460,7 @@
         <v>44</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>104</v>
@@ -2934,7 +3481,7 @@
         <v>44</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>106</v>
@@ -3003,7 +3550,7 @@
         <v>109</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G42" s="11"/>
     </row>
@@ -3018,7 +3565,7 @@
         <v>108</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>121</v>
@@ -3039,7 +3586,7 @@
         <v>108</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>122</v>
@@ -3049,7 +3596,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3063,7 +3610,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3085,13 +3632,13 @@
         <v>78</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3223,13 +3770,13 @@
         <v>88</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="G57" s="11"/>
     </row>
@@ -3241,7 +3788,7 @@
         <v>89</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -3295,13 +3842,13 @@
         <v>93</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>144</v>
@@ -3315,13 +3862,13 @@
         <v>94</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3356,7 +3903,7 @@
   <autoFilter ref="A1:F65" xr:uid="{CF47E148-4D5C-4502-92EF-4AD199AF5190}">
     <filterColumn colId="2">
       <filters>
-        <filter val="ADC"/>
+        <filter val="USB"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3367,11 +3914,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF301F84-FA9D-41B9-B741-344A71094BD8}">
+  <dimension ref="A18:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DB699-94B0-47D3-A036-E80D7C15C2B3}">
-  <dimension ref="A2:I20"/>
+  <dimension ref="A2:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3406,7 +4021,7 @@
         <v>218</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>223</v>
@@ -3417,18 +4032,18 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>221</v>
       </c>
       <c r="F3" s="3"/>
@@ -3438,18 +4053,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="12" t="s">
         <v>221</v>
       </c>
       <c r="F4" s="3"/>
@@ -3459,18 +4074,18 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="12" t="s">
         <v>220</v>
       </c>
       <c r="F5" s="3"/>
@@ -3480,7 +4095,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>202</v>
@@ -3501,16 +4116,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>220</v>
@@ -3522,18 +4137,18 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="12" t="s">
         <v>220</v>
       </c>
       <c r="F8" s="3"/>
@@ -3543,18 +4158,18 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="12" t="s">
         <v>220</v>
       </c>
       <c r="F9" s="3"/>
@@ -3564,7 +4179,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>205</v>
@@ -3578,16 +4193,16 @@
       <c r="E10" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>206</v>
@@ -3601,80 +4216,802 @@
       <c r="E11" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23" t="s">
-        <v>238</v>
+      <c r="F12" s="41"/>
+      <c r="G12" s="43" t="s">
+        <v>236</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="12"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="25">
+        <v>3435</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C20">
-        <v>3435</v>
-      </c>
-      <c r="D20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E20">
+      <c r="E19" s="25">
         <v>10</v>
       </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="24">
+        <v>-30</v>
+      </c>
+      <c r="C21" s="25">
+        <f>10*EXP(3435*(1/(B21+273.15)-1/(273.15+25)))</f>
+        <v>135.45245430224773</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25">
+        <f>B21*10</f>
+        <v>-300</v>
+      </c>
+      <c r="F21" s="25">
+        <f>INT(G21/3.3*4096)</f>
+        <v>3569</v>
+      </c>
+      <c r="G21" s="26">
+        <f>3.3/(C21+20)*C21</f>
+        <v>2.8754328852751625</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="24">
+        <v>-20</v>
+      </c>
+      <c r="C22" s="25">
+        <f t="shared" ref="C22:C36" si="0">10*EXP(3435*(1/(B22+273.15)-1/(273.15+25)))</f>
+        <v>77.522549792681289</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25">
+        <f t="shared" ref="E22:E36" si="1">B22*10</f>
+        <v>-200</v>
+      </c>
+      <c r="F22" s="25">
+        <f t="shared" ref="F22:F36" si="2">INT(G22/3.3*4096)</f>
+        <v>3255</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" ref="G22:G36" si="3">3.3/(C22+20)*C22</f>
+        <v>2.6232334455948254</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="24">
+        <v>-10</v>
+      </c>
+      <c r="C23" s="25">
+        <f t="shared" si="0"/>
+        <v>46.290198425810701</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="F23" s="25">
+        <f t="shared" si="2"/>
+        <v>2860</v>
+      </c>
+      <c r="G23" s="26">
+        <f t="shared" si="3"/>
+        <v>2.304377697347451</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="25">
+        <f t="shared" si="0"/>
+        <v>28.70429038973078</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="25">
+        <f t="shared" si="2"/>
+        <v>2414</v>
+      </c>
+      <c r="G24" s="26">
+        <f t="shared" si="3"/>
+        <v>1.9448832439222645</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="24">
+        <v>10</v>
+      </c>
+      <c r="C25" s="25">
+        <f t="shared" si="0"/>
+        <v>18.410437653102953</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F25" s="25">
+        <f t="shared" si="2"/>
+        <v>1963</v>
+      </c>
+      <c r="G25" s="26">
+        <f t="shared" si="3"/>
+        <v>1.5817170531596831</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="24">
+        <v>20</v>
+      </c>
+      <c r="C26" s="25">
+        <f t="shared" si="0"/>
+        <v>12.171405409556201</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" si="2"/>
+        <v>1549</v>
+      </c>
+      <c r="G26" s="26">
+        <f t="shared" si="3"/>
+        <v>1.2484887539170002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="24">
+        <v>30</v>
+      </c>
+      <c r="C27" s="25">
+        <f t="shared" si="0"/>
+        <v>8.2694076928314946</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F27" s="25">
+        <f t="shared" si="2"/>
+        <v>1198</v>
+      </c>
+      <c r="G27" s="26">
+        <f t="shared" si="3"/>
+        <v>0.9653207340903659</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="24">
+        <v>40</v>
+      </c>
+      <c r="C28" s="25">
+        <f t="shared" si="0"/>
+        <v>5.7587632432773441</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="F28" s="25">
+        <f t="shared" si="2"/>
+        <v>915</v>
+      </c>
+      <c r="G28" s="26">
+        <f t="shared" si="3"/>
+        <v>0.73776518396219881</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="24">
+        <v>50</v>
+      </c>
+      <c r="C29" s="25">
+        <f t="shared" si="0"/>
+        <v>4.1011899011346262</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="F29" s="25">
+        <f t="shared" si="2"/>
+        <v>696</v>
+      </c>
+      <c r="G29" s="26">
+        <f t="shared" si="3"/>
+        <v>0.56154599541606542</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="24">
+        <v>60</v>
+      </c>
+      <c r="C30" s="25">
+        <f t="shared" si="0"/>
+        <v>2.9808530228799102</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F30" s="25">
+        <f t="shared" si="2"/>
+        <v>531</v>
+      </c>
+      <c r="G30" s="26">
+        <f t="shared" si="3"/>
+        <v>0.42804394448326599</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="24">
+        <v>70</v>
+      </c>
+      <c r="C31" s="25">
+        <f t="shared" si="0"/>
+        <v>2.2072298351500903</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="F31" s="25">
+        <f t="shared" si="2"/>
+        <v>407</v>
+      </c>
+      <c r="G31" s="26">
+        <f t="shared" si="3"/>
+        <v>0.32799491472215259</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="24">
+        <v>80</v>
+      </c>
+      <c r="C32" s="25">
+        <f t="shared" si="0"/>
+        <v>1.6624354223086466</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="F32" s="25">
+        <f t="shared" si="2"/>
+        <v>314</v>
+      </c>
+      <c r="G32" s="26">
+        <f t="shared" si="3"/>
+        <v>0.25325115974581708</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="24">
+        <v>90</v>
+      </c>
+      <c r="C33" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2718085216963091</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" si="2"/>
+        <v>244</v>
+      </c>
+      <c r="G33" s="26">
+        <f t="shared" si="3"/>
+        <v>0.19730189453882574</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="24">
+        <v>100</v>
+      </c>
+      <c r="C34" s="25">
+        <f t="shared" si="0"/>
+        <v>0.9870367684615805</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="G34" s="26">
+        <f t="shared" si="3"/>
+        <v>0.15520158333252781</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="24">
+        <v>110</v>
+      </c>
+      <c r="C35" s="25">
+        <f t="shared" si="0"/>
+        <v>0.77623178529012105</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="F35" s="25">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="G35" s="26">
+        <f t="shared" si="3"/>
+        <v>0.12329304553056752</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="27">
+        <v>120</v>
+      </c>
+      <c r="C36" s="28">
+        <f t="shared" si="0"/>
+        <v>0.61795593619163591</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="F36" s="28">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="G36" s="29">
+        <f t="shared" si="3"/>
+        <v>9.8906729442214111E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" s="3">
+        <v>20</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="34"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" s="3">
+        <v>62</v>
+      </c>
+      <c r="D41" s="3">
+        <f>3.3/(20+C41)*C41</f>
+        <v>2.4951219512195122</v>
+      </c>
+      <c r="E41" s="34">
+        <f>D41/3.3*4096</f>
+        <v>3096.9756097560976</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" s="3">
+        <v>20</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" ref="D42:D44" si="4">3.3/(20+C42)*C42</f>
+        <v>1.65</v>
+      </c>
+      <c r="E42" s="34">
+        <f t="shared" ref="E42:E44" si="5">D42/3.3*4096</f>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C43" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="4"/>
+        <v>0.87352941176470589</v>
+      </c>
+      <c r="E43" s="34">
+        <f t="shared" si="5"/>
+        <v>1084.2352941176471</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C48" s="3">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="34"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E49" s="34">
+        <f>INT(D49/3.3*4096)</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C50" s="3">
+        <v>39</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" ref="D50:D52" si="6">3.3/(20+C50)*C50</f>
+        <v>2.18135593220339</v>
+      </c>
+      <c r="E50" s="34">
+        <f t="shared" ref="E50:E52" si="7">INT(D50/3.3*4096)</f>
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C51" s="3">
+        <v>120</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8285714285714283</v>
+      </c>
+      <c r="E51" s="34">
+        <f t="shared" si="7"/>
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" s="3">
+        <f>39*120/(39+120)</f>
+        <v>29.433962264150942</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9648854961832061</v>
+      </c>
+      <c r="E52" s="34">
+        <f t="shared" si="7"/>
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="3">
+        <v>20</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="34"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E56" s="34">
+        <f>INT(D56/3.3*4096)</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" s="3">
+        <v>39</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" ref="D57:D59" si="8">3.3/(20+C57)*C57</f>
+        <v>2.18135593220339</v>
+      </c>
+      <c r="E57" s="34">
+        <f t="shared" ref="E57:E59" si="9">INT(D57/3.3*4096)</f>
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" s="3">
+        <v>20</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="8"/>
+        <v>1.65</v>
+      </c>
+      <c r="E58" s="34">
+        <f t="shared" si="9"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C59" s="3">
+        <f>39*20/(39+20)</f>
+        <v>13.220338983050848</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="8"/>
+        <v>1.3132653061224488</v>
+      </c>
+      <c r="E59" s="34">
+        <f t="shared" si="9"/>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C62" s="3">
+        <v>82</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="34"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C63" s="3">
+        <v>20</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="34"/>
+    </row>
+    <row r="64" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" s="36">
+        <f>3.3*102/20</f>
+        <v>16.829999999999998</v>
+      </c>
+      <c r="D64" s="36"/>
+      <c r="E64" s="37"/>
+    </row>
+    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="3">
+        <v>82</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="34"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68" s="3">
+        <v>20</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="34"/>
+    </row>
+    <row r="69" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" s="36">
+        <f>3.3*102/20</f>
+        <v>16.829999999999998</v>
+      </c>
+      <c r="D69" s="36"/>
+      <c r="E69" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3687,23 +5024,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="G20:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" t="s">
+        <v>307</v>
+      </c>
+      <c r="I20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>309</v>
+      </c>
+      <c r="H21" t="s">
+        <v>311</v>
+      </c>
+      <c r="I21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>306</v>
+      </c>
+      <c r="H23" t="s">
+        <v>313</v>
+      </c>
+      <c r="I23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:I45"/>
   <sheetViews>

--- a/DesignDocument/OBC软硬件接口(HSI)设计文档.xlsx
+++ b/DesignDocument/OBC软硬件接口(HSI)设计文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F4CE6A-F54B-40C6-B3F7-E1486F2AE7B7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05181375-AB4D-455C-8BB8-D4D512F8E07C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1176,14 +1176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I_Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电池电压</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1192,10 +1184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上限mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADC_U_SET_TEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1257,6 +1245,18 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_Set、I_Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_Set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2775,8 +2775,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3042,7 +3042,7 @@
       <c r="G14" s="11"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="G15" s="11"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3086,7 +3086,7 @@
       <c r="G16" s="11"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3903,7 +3903,7 @@
   <autoFilter ref="A1:F65" xr:uid="{CF47E148-4D5C-4502-92EF-4AD199AF5190}">
     <filterColumn colId="2">
       <filters>
-        <filter val="USB"/>
+        <filter val="ADC"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3917,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF301F84-FA9D-41B9-B741-344A71094BD8}">
   <dimension ref="A18:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3931,10 +3931,10 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3945,10 +3945,10 @@
         <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3983,10 +3983,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DB699-94B0-47D3-A036-E80D7C15C2B3}">
-  <dimension ref="A2:I69"/>
+  <dimension ref="A2:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4119,7 +4119,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>59</v>
@@ -4755,263 +4755,262 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C47" s="31" t="s">
+    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D48" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E48" s="32" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="C48" s="3">
-        <v>20</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="34"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="33" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="E49" s="34">
-        <f>INT(D49/3.3*4096)</f>
-        <v>4096</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="34"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C50" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" ref="D50:D52" si="6">3.3/(20+C50)*C50</f>
-        <v>2.18135593220339</v>
+        <v>3.3</v>
       </c>
       <c r="E50" s="34">
-        <f t="shared" ref="E50:E52" si="7">INT(D50/3.3*4096)</f>
-        <v>2707</v>
+        <f>INT(D50/3.3*4096)</f>
+        <v>4096</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="3">
+        <v>39</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" ref="D51:D53" si="6">3.3/(20+C51)*C51</f>
+        <v>2.18135593220339</v>
+      </c>
+      <c r="E51" s="34">
+        <f t="shared" ref="E51:E53" si="7">INT(D51/3.3*4096)</f>
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C52" s="3">
         <v>120</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D52" s="3">
         <f t="shared" si="6"/>
         <v>2.8285714285714283</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E52" s="34">
         <f t="shared" si="7"/>
         <v>3510</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="33" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C52" s="3">
-        <f>39*120/(39+120)</f>
-        <v>29.433962264150942</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="C53" s="3">
+        <f>39*20/(39+20)</f>
+        <v>13.220338983050848</v>
+      </c>
+      <c r="D53" s="3">
         <f t="shared" si="6"/>
-        <v>1.9648854961832061</v>
-      </c>
-      <c r="E52" s="34">
+        <v>1.3132653061224488</v>
+      </c>
+      <c r="E53" s="34">
         <f t="shared" si="7"/>
-        <v>2438</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>293</v>
-      </c>
-    </row>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="C55" s="3">
-        <v>20</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="34"/>
+      <c r="B55" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="33" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C56" s="3">
-        <v>0</v>
-      </c>
-      <c r="D56" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="E56" s="34">
-        <f>INT(D56/3.3*4096)</f>
-        <v>4096</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="34"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="33" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C57" s="3">
-        <v>39</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" ref="D57:D59" si="8">3.3/(20+C57)*C57</f>
-        <v>2.18135593220339</v>
-      </c>
-      <c r="E57" s="34">
-        <f t="shared" ref="E57:E59" si="9">INT(D57/3.3*4096)</f>
-        <v>2707</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C58" s="3">
         <v>20</v>
       </c>
-      <c r="D58" s="3">
-        <f t="shared" si="8"/>
-        <v>1.65</v>
-      </c>
-      <c r="E58" s="34">
-        <f t="shared" si="9"/>
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="C59" s="3">
-        <f>39*20/(39+20)</f>
-        <v>13.220338983050848</v>
-      </c>
-      <c r="D59" s="3">
-        <f t="shared" si="8"/>
-        <v>1.3132653061224488</v>
-      </c>
-      <c r="E59" s="34">
-        <f t="shared" si="9"/>
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="34"/>
+    </row>
+    <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="C58" s="36">
+        <f>3.3*102/20</f>
+        <v>16.829999999999998</v>
+      </c>
+      <c r="D58" s="36"/>
+      <c r="E58" s="37"/>
+    </row>
+    <row r="59" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="32"/>
+    </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="32"/>
+      <c r="B61" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" s="3">
+        <v>82</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="34"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="33" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C62" s="3">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="34"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="C63" s="3">
-        <v>20</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="34"/>
-    </row>
-    <row r="64" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="C64" s="36">
+    <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" s="36">
         <f>3.3*102/20</f>
         <v>16.829999999999998</v>
       </c>
-      <c r="D64" s="36"/>
-      <c r="E64" s="37"/>
-    </row>
-    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="37"/>
+    </row>
+    <row r="64" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="32"/>
+      <c r="B66" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C66" s="3">
+        <v>20</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="34"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="33" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C67" s="3">
-        <v>82</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E67" s="34">
+        <f>INT(D67/3.3*4096)</f>
+        <v>4096</v>
+      </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="33" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C68" s="3">
-        <v>20</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="34"/>
-    </row>
-    <row r="69" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="C69" s="36">
-        <f>3.3*102/20</f>
-        <v>16.829999999999998</v>
-      </c>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
+        <v>102</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" ref="D68:D70" si="8">3.3/(20+C68)*C68</f>
+        <v>2.7590163934426228</v>
+      </c>
+      <c r="E68" s="34">
+        <f t="shared" ref="E68:E70" si="9">INT(D68/3.3*4096)</f>
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69" s="3">
+        <v>204</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="8"/>
+        <v>3.0053571428571426</v>
+      </c>
+      <c r="E69" s="34">
+        <f t="shared" si="9"/>
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" s="3">
+        <v>306</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="8"/>
+        <v>3.0975460122699383</v>
+      </c>
+      <c r="E70" s="34">
+        <f t="shared" si="9"/>
+        <v>3844</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5028,7 +5027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="G20:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -5039,21 +5038,21 @@
   <sheetData>
     <row r="20" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
+        <v>302</v>
+      </c>
+      <c r="H20" t="s">
+        <v>304</v>
+      </c>
+      <c r="I20" t="s">
         <v>305</v>
-      </c>
-      <c r="H20" t="s">
-        <v>307</v>
-      </c>
-      <c r="I20" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I21" t="s">
         <v>84</v>
@@ -5061,10 +5060,10 @@
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I22" t="s">
         <v>85</v>
@@ -5072,18 +5071,18 @@
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
